--- a/aggregated_datasets/Exp_affect_antisocial.xlsx
+++ b/aggregated_datasets/Exp_affect_antisocial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19155" windowHeight="8475"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>Anderson, C. A., &amp; Carnagey, N. L. (2009). S2</t>
   </si>
@@ -139,13 +139,43 @@
   </si>
   <si>
     <t>Valadez, J. J., &amp; Ferguson, C. J. (2012).</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Outcome (specific)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Z-Value</t>
+  </si>
+  <si>
+    <t>p-Value</t>
+  </si>
+  <si>
+    <t>Subgroup w/in study</t>
+  </si>
+  <si>
+    <t>Time point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +213,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -261,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -295,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,146 +507,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>0.15799050110667301</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>-2.9970666122126799E-3</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>0.31099560006848198</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>1.9237757008707499</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>5.4382704477995002E-2</v>
       </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.35446814900000001</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.100977717278578</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.56474058205949995</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2.6976068413679601</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>6.9839869498216096E-3</v>
       </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.38708835994406698</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.138178761406372</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.59000447581014304</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2.97209462649487</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>2.9577550878963099E-3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.8743076362343201E-2</v>
-      </c>
-      <c r="E4">
-        <v>-0.14582636743338201</v>
-      </c>
-      <c r="F4">
-        <v>0.182303151145739</v>
-      </c>
-      <c r="G4">
-        <v>0.22183518103993599</v>
-      </c>
-      <c r="H4">
-        <v>0.82444219119971796</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -617,537 +654,569 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>1.8743076362343201E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.14582636743338201</v>
+      </c>
+      <c r="F5">
+        <v>0.182303151145739</v>
+      </c>
+      <c r="G5">
+        <v>0.22183518103993599</v>
+      </c>
+      <c r="H5">
+        <v>0.82444219119971796</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>0.330350424728106</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0.104619765707495</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.52371062516732103</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>2.82389708373183</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>4.7443616394930999E-3</v>
       </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.28273680935577</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>-9.3153880076623494E-2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.58808469290518495</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1.4832152708348101</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.138017225208627</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-0.19884568451550799</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-0.514072306819091</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.163702030660651</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>-1.0770989684562899</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0.281436053878998</v>
       </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.120579498871309</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>5.1125707044603202E-2</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.18887254611847301</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>3.39273299509646</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>6.9199053694624102E-4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.20307294859175301</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>-2.1080389377204401E-2</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.40778765071377399</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1.7779399929569</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <v>7.54137109030113E-2</v>
       </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>5.2410444757999601E-2</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-0.255390316059808</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.35056506345136301</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>0.32782900963872003</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>0.74304095183867203</v>
       </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.22443290236982399</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>1.7178076505459199E-2</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.41319575184859197</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>2.1194401599596802</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>3.4053285871292499E-2</v>
       </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>-8.1130243527845203E-2</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-0.308238734637023</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.154727361209894</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-0.67159684377641404</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0.50184038814015597</v>
       </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.21492</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>6.2316725952517901E-2</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.35770380438054999</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>2.7442894135523601</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="1">
         <v>6.0642048421497598E-3</v>
       </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.104531242765947</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.43856255723154403</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>3.08504653176698</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>2.0352030977157701E-3</v>
       </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.224147692921427</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.105235779245699</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.33674006286556801</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>3.65145246092239</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>2.6076137224872997E-4</v>
       </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.131305079123476</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>5.19788031999412E-4</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.25767401758648301</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>1.96770843840209</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>4.9101594353132501E-2</v>
       </c>
-      <c r="J16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.21</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>6.6169010412293006E-2</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.34528173108066901</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>2.8440604939658098</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <v>4.4542590161882299E-3</v>
       </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>9.9370925693902504E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>-1.5305878715239699E-2</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.21146745001805101</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>1.69909894823255</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>8.9300541543670495E-2</v>
       </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>2.49663755409265E-2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>-0.144574700258606</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.19308334386033299</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.28694615628407999</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>0.77415354823137195</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.210087913786557</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>6.0605961203937402E-2</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.35035319045332203</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>2.7394169200723799</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>6.1548268226394604E-3</v>
       </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>0.18299951225952099</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>4.50906074078542E-2</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.31406379147337798</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>2.5918154207266499</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>9.5470978784697492E-3</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>11</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1157,24 +1226,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
